--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w4/w4-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w4/w4-workstream.initiatives.a6i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test-knowledge-base\excel-postings\initiatives\FY 22\s1.w4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50556FBE-56E5-415B-9D23-BFE71CF30AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CB420-2C8B-4F75-B7D3-950FF1AABA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Posting Label" sheetId="3" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Modernized product</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B55130-7C1C-45F0-A86F-651DEF8E731C}">
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -813,10 +813,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
@@ -856,28 +856,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -885,71 +885,71 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10">
         <v>44315</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE62272-EDE1-49CE-9DD5-2DAC624B869E}">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
@@ -1042,23 +1042,23 @@
     <row r="4" spans="2:10" ht="169.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
@@ -1084,19 +1084,19 @@
     <row r="7" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1107,7 +1107,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="15"/>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="15">
         <v>44439</v>
@@ -1129,20 +1129,20 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
@@ -1516,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1533,34 +1533,34 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="M2" s="19"/>
     </row>
@@ -1593,14 +1593,14 @@
     <row r="5" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="23">
         <v>10.909966399999998</v>
@@ -1616,20 +1616,20 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="22">
         <v>0.22700000000000004</v>
@@ -1645,65 +1645,65 @@
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.45">
@@ -1738,29 +1738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCBD749F692D2840A5441473A3346AC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2155aeb54e5d7003d408112aa42e75d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1457f3fe-6304-4719-bef8-60c608407d99" xmlns:ns3="66517581-92a9-4cb0-981f-3f6c827c3504" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4c58ad8abd1e926bea19a7235ad73cd" ns2:_="" ns3:_="">
     <xsd:import namespace="1457f3fe-6304-4719-bef8-60c608407d99"/>
@@ -1971,25 +1948,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91F31F12-4269-4BB5-A347-1CDAE6742109}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2006,4 +1988,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>